--- a/Team.xlsx
+++ b/Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Folder\Galal\Courses\Digital Egypt Pioneers Initiative (DEPI) - Software Testing\DEPI Software Tester Graduation Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E13ED5-4917-45A5-A099-3EBDAA287076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1779FD3E-C139-4786-94C1-0F1B5C5258DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="00000000000"/>
+    <numFmt numFmtId="164" formatCode="00000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -220,64 +220,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -647,7 +597,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,22 +709,22 @@
     <cfRule type="duplicateValues" dxfId="8" priority="5"/>
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="duplicateValues" dxfId="10" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
